--- a/Intel/employee_info.xlsx
+++ b/Intel/employee_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>GMIPS Employee Information</t>
   </si>
@@ -279,6 +279,87 @@
   </si>
   <si>
     <t>Home Phone</t>
+  </si>
+  <si>
+    <t>Security Question Answers</t>
+  </si>
+  <si>
+    <t>30-Jan-78, Steelers, Hurricanes</t>
+  </si>
+  <si>
+    <t>21-Jul-64, Cowboys, Pirates</t>
+  </si>
+  <si>
+    <t>19-Feb-81, SF 49ers, Blue Devil</t>
+  </si>
+  <si>
+    <t>3-Mar-66, Bulls, Tornados</t>
+  </si>
+  <si>
+    <t>28-Aug-75, Pistons, Red Sharks</t>
+  </si>
+  <si>
+    <t>29-Dec-69, Patriots, Timberwolves</t>
+  </si>
+  <si>
+    <t>25-Mar-84, Vikings, Tigers</t>
+  </si>
+  <si>
+    <t>21-May-78, Raiders, Thunderdogs</t>
+  </si>
+  <si>
+    <t>15-Oct-73, Seahawks, Smurfs</t>
+  </si>
+  <si>
+    <t>21-Mar-69, Lakers, Tornados</t>
+  </si>
+  <si>
+    <t>DoB, Favorite sports team, HS mascot.</t>
+  </si>
+  <si>
+    <t>16-Jun-81, Dolphins, Red Stallion</t>
+  </si>
+  <si>
+    <t>2-Jan-63, Red Sox, Green Hornets</t>
+  </si>
+  <si>
+    <t>4-Oct-80, Buckeyes, Pythons</t>
+  </si>
+  <si>
+    <t>12-Jun-77, Falcons, Pioneers</t>
+  </si>
+  <si>
+    <t>24-Sep-60, Diamondbacks, Red Boar</t>
+  </si>
+  <si>
+    <t>20-Aug-88, Celtics, Angy Leprechaun</t>
+  </si>
+  <si>
+    <t>9-Apr-72, Panthers, Red Stallion</t>
+  </si>
+  <si>
+    <t>3-Jun-69, Bulls, Tornadoes</t>
+  </si>
+  <si>
+    <t>29-Dec-78, Broncos, Tigers</t>
+  </si>
+  <si>
+    <t>3-May-87, Patriots, Tigers</t>
+  </si>
+  <si>
+    <t>17-Jul-79, Broncos, Tornadoes</t>
+  </si>
+  <si>
+    <t>18-Dec-88, Panthers, Hurricanes</t>
+  </si>
+  <si>
+    <t>10-May-77, Raiders, Red Stallion</t>
+  </si>
+  <si>
+    <t>3-Mar-90, Cowboys, Smurfs</t>
+  </si>
+  <si>
+    <t>30-Jul-86, Steelers, Pirates</t>
   </si>
 </sst>
 </file>
@@ -311,15 +392,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -352,14 +439,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -371,7 +471,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -384,8 +486,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -394,26 +513,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -422,12 +528,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -437,28 +539,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -467,24 +552,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -497,23 +565,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -527,24 +597,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,536 +907,618 @@
     <col min="4" max="4" width="19.26953125" customWidth="1"/>
     <col min="5" max="5" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="G2" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>982920938</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="7">
         <v>7068929812</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="F3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>27826374</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
         <v>8039828734</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="F4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>927485920</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>8645989823</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="F5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>602839485</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>4049280923</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>374859023</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7">
         <v>5048237843</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="F7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>893409123</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>2540927823</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="6">
         <v>349203234</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="7">
         <v>7060927897</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="F9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <v>349023454</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7">
         <v>7069238923</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="F10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>782394857</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>8037230923</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>92839485</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="7">
         <v>4044982387</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <v>210934859</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="7">
         <v>8644982233</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="F13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>210938495</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="7">
         <v>7069238892</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="G14" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="6">
         <v>76092348</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="7">
         <v>4042289012</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="G15" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <v>190932847</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="7">
         <v>8034491283</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="6">
         <v>600928374</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="7">
         <v>7065539902</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="F17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="6">
         <v>329071394</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="7">
         <v>8037289383</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="G18" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="6">
         <v>21083374</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="7">
         <v>4042744438</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="F19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="6">
         <v>78320945</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="7">
         <v>4048278377</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="F20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>347209123</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="7">
         <v>7062987334</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+      <c r="F21" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="6">
         <v>209384749</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="7">
         <v>7852139982</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="F22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="6">
         <v>294092342</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="7">
         <v>2547982344</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="G23" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="6">
         <v>98343023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="7">
         <v>8647236648</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="G24" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="6">
         <v>257221984</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="7">
         <v>7065502293</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+      <c r="F25" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="6">
         <v>98217435</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="7">
         <v>7061283472</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="14" t="s">
+      <c r="G26" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="10">
         <v>9203840</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="11">
         <v>4049823349</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="17" t="s">
         <v>29</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
